--- a/F429ZI_문서/F429ZI_PIN위치.xlsx
+++ b/F429ZI_문서/F429ZI_PIN위치.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="308">
   <si>
     <t>PC8</t>
   </si>
@@ -446,6 +446,670 @@
   </si>
   <si>
     <t>&lt;뒤에서 봤을 때&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;가운데 핀 위에서&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|OREF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>D55</t>
+  </si>
+  <si>
+    <t>D56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D58</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>D60</t>
+  </si>
+  <si>
+    <t>D61</t>
+  </si>
+  <si>
+    <t>D62</t>
+  </si>
+  <si>
+    <t>D63</t>
+  </si>
+  <si>
+    <t>D64</t>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,9 +1492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1856,7 +2522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -1870,7 +2536,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
@@ -1882,6 +2548,611 @@
       </c>
       <c r="I82" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>217</v>
+      </c>
+      <c r="I87" t="s">
+        <v>240</v>
+      </c>
+      <c r="K87" t="s">
+        <v>262</v>
+      </c>
+      <c r="L87" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>218</v>
+      </c>
+      <c r="I88" t="s">
+        <v>241</v>
+      </c>
+      <c r="K88" t="s">
+        <v>263</v>
+      </c>
+      <c r="L88" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>219</v>
+      </c>
+      <c r="I89" t="s">
+        <v>242</v>
+      </c>
+      <c r="L89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>137</v>
+      </c>
+      <c r="H90" t="s">
+        <v>220</v>
+      </c>
+      <c r="I90" t="s">
+        <v>243</v>
+      </c>
+      <c r="L90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" t="s">
+        <v>172</v>
+      </c>
+      <c r="E91" t="s">
+        <v>194</v>
+      </c>
+      <c r="H91" t="s">
+        <v>221</v>
+      </c>
+      <c r="I91" t="s">
+        <v>244</v>
+      </c>
+      <c r="K91" t="s">
+        <v>271</v>
+      </c>
+      <c r="L91" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" t="s">
+        <v>195</v>
+      </c>
+      <c r="H92" t="s">
+        <v>222</v>
+      </c>
+      <c r="I92" t="s">
+        <v>245</v>
+      </c>
+      <c r="K92" t="s">
+        <v>272</v>
+      </c>
+      <c r="L92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>171</v>
+      </c>
+      <c r="D93" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" t="s">
+        <v>196</v>
+      </c>
+      <c r="H93" t="s">
+        <v>223</v>
+      </c>
+      <c r="I93" t="s">
+        <v>246</v>
+      </c>
+      <c r="K93" t="s">
+        <v>273</v>
+      </c>
+      <c r="L93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" t="s">
+        <v>175</v>
+      </c>
+      <c r="E94" t="s">
+        <v>197</v>
+      </c>
+      <c r="H94" t="s">
+        <v>224</v>
+      </c>
+      <c r="I94" t="s">
+        <v>247</v>
+      </c>
+      <c r="K94" t="s">
+        <v>274</v>
+      </c>
+      <c r="L94" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95" t="s">
+        <v>198</v>
+      </c>
+      <c r="H95" t="s">
+        <v>225</v>
+      </c>
+      <c r="I95" t="s">
+        <v>248</v>
+      </c>
+      <c r="K95" t="s">
+        <v>275</v>
+      </c>
+      <c r="L95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" t="s">
+        <v>177</v>
+      </c>
+      <c r="E96" t="s">
+        <v>199</v>
+      </c>
+      <c r="H96" t="s">
+        <v>226</v>
+      </c>
+      <c r="I96" t="s">
+        <v>249</v>
+      </c>
+      <c r="K96" t="s">
+        <v>276</v>
+      </c>
+      <c r="L96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" t="s">
+        <v>179</v>
+      </c>
+      <c r="E98" t="s">
+        <v>201</v>
+      </c>
+      <c r="H98" t="s">
+        <v>227</v>
+      </c>
+      <c r="K98" t="s">
+        <v>277</v>
+      </c>
+      <c r="L98" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>228</v>
+      </c>
+      <c r="K99" t="s">
+        <v>278</v>
+      </c>
+      <c r="L99" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" t="s">
+        <v>180</v>
+      </c>
+      <c r="E100" t="s">
+        <v>202</v>
+      </c>
+      <c r="H100" t="s">
+        <v>142</v>
+      </c>
+      <c r="K100" t="s">
+        <v>279</v>
+      </c>
+      <c r="L100" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" t="s">
+        <v>181</v>
+      </c>
+      <c r="E101" t="s">
+        <v>203</v>
+      </c>
+      <c r="H101" t="s">
+        <v>229</v>
+      </c>
+      <c r="I101" t="s">
+        <v>250</v>
+      </c>
+      <c r="K101" t="s">
+        <v>280</v>
+      </c>
+      <c r="L101" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" t="s">
+        <v>182</v>
+      </c>
+      <c r="E102" t="s">
+        <v>204</v>
+      </c>
+      <c r="H102" t="s">
+        <v>230</v>
+      </c>
+      <c r="I102" t="s">
+        <v>251</v>
+      </c>
+      <c r="K102" t="s">
+        <v>281</v>
+      </c>
+      <c r="L102" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" t="s">
+        <v>183</v>
+      </c>
+      <c r="E103" t="s">
+        <v>205</v>
+      </c>
+      <c r="H103" t="s">
+        <v>231</v>
+      </c>
+      <c r="I103" t="s">
+        <v>252</v>
+      </c>
+      <c r="K103" t="s">
+        <v>282</v>
+      </c>
+      <c r="L103" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" t="s">
+        <v>184</v>
+      </c>
+      <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="H104" t="s">
+        <v>232</v>
+      </c>
+      <c r="I104" t="s">
+        <v>253</v>
+      </c>
+      <c r="K104" t="s">
+        <v>283</v>
+      </c>
+      <c r="L104" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" t="s">
+        <v>142</v>
+      </c>
+      <c r="H105" t="s">
+        <v>233</v>
+      </c>
+      <c r="I105" t="s">
+        <v>254</v>
+      </c>
+      <c r="K105" t="s">
+        <v>284</v>
+      </c>
+      <c r="L105" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" t="s">
+        <v>185</v>
+      </c>
+      <c r="E106" t="s">
+        <v>207</v>
+      </c>
+      <c r="H106" t="s">
+        <v>142</v>
+      </c>
+      <c r="K106" t="s">
+        <v>285</v>
+      </c>
+      <c r="L106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" t="s">
+        <v>163</v>
+      </c>
+      <c r="D107" t="s">
+        <v>186</v>
+      </c>
+      <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="H107" t="s">
+        <v>234</v>
+      </c>
+      <c r="I107" t="s">
+        <v>255</v>
+      </c>
+      <c r="K107" t="s">
+        <v>286</v>
+      </c>
+      <c r="L107" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>187</v>
+      </c>
+      <c r="E108" t="s">
+        <v>209</v>
+      </c>
+      <c r="H108" t="s">
+        <v>235</v>
+      </c>
+      <c r="I108" t="s">
+        <v>256</v>
+      </c>
+      <c r="L108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" t="s">
+        <v>188</v>
+      </c>
+      <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="H109" t="s">
+        <v>236</v>
+      </c>
+      <c r="I109" t="s">
+        <v>257</v>
+      </c>
+      <c r="K109" t="s">
+        <v>298</v>
+      </c>
+      <c r="L109" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" t="s">
+        <v>189</v>
+      </c>
+      <c r="E110" t="s">
+        <v>211</v>
+      </c>
+      <c r="H110" t="s">
+        <v>207</v>
+      </c>
+      <c r="I110" t="s">
+        <v>258</v>
+      </c>
+      <c r="K110" t="s">
+        <v>297</v>
+      </c>
+      <c r="L110" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>142</v>
+      </c>
+      <c r="D111" t="s">
+        <v>190</v>
+      </c>
+      <c r="E111" t="s">
+        <v>213</v>
+      </c>
+      <c r="H111" t="s">
+        <v>142</v>
+      </c>
+      <c r="K111" t="s">
+        <v>296</v>
+      </c>
+      <c r="L111" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" t="s">
+        <v>191</v>
+      </c>
+      <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="H112" t="s">
+        <v>237</v>
+      </c>
+      <c r="I112" t="s">
+        <v>259</v>
+      </c>
+      <c r="K112" t="s">
+        <v>295</v>
+      </c>
+      <c r="L112" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" t="s">
+        <v>215</v>
+      </c>
+      <c r="H113" t="s">
+        <v>238</v>
+      </c>
+      <c r="I113" t="s">
+        <v>260</v>
+      </c>
+      <c r="K113" t="s">
+        <v>293</v>
+      </c>
+      <c r="L113" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" t="s">
+        <v>193</v>
+      </c>
+      <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="H114" t="s">
+        <v>239</v>
+      </c>
+      <c r="I114" t="s">
+        <v>261</v>
+      </c>
+      <c r="K114" t="s">
+        <v>294</v>
+      </c>
+      <c r="L114" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
